--- a/Documents/RIS-Schedule.xlsx
+++ b/Documents/RIS-Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9198aa0cd704f169/Documents/School/2018 Spring/4400 Advanced Software Engineering/Draft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyler\Documents\GitHub\RIS-PACS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>MAY</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Have the schedule Completed</t>
+  </si>
+  <si>
+    <t>present progress to salimi</t>
   </si>
 </sst>
 </file>
@@ -2113,8 +2116,8 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2290,7 +2293,9 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
